--- a/clean_output/final_results.xlsx
+++ b/clean_output/final_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BethanyMac/Documents/GitHub/project_fin/clean_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7A61511-CA1C-4546-A2EC-1F913DCDDD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A07E247C-C3BE-1746-90D0-99FA642ECAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="final_results" sheetId="1" r:id="rId1"/>
@@ -782,9 +782,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1142,8 +1145,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,7 +1163,7 @@
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="14.5" bestFit="1" customWidth="1"/>
@@ -1208,7 +1211,7 @@
       <c r="M1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="O1" t="s">
@@ -1286,7 +1289,7 @@
         <f>K2/L2</f>
         <v>67.658536585365852</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>2963.5</v>
       </c>
       <c r="O2" s="1">
@@ -1361,7 +1364,7 @@
         <f t="shared" ref="M3:M66" si="2">K3/L3</f>
         <v>42</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>47.499992440196898</v>
       </c>
       <c r="O3" s="1">
@@ -1440,7 +1443,7 @@
         <f t="shared" si="2"/>
         <v>60.75</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>1042.4999971412799</v>
       </c>
       <c r="O4" s="1">
@@ -1519,7 +1522,7 @@
         <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>41.499991196346897</v>
       </c>
       <c r="O5" s="1">
@@ -1598,7 +1601,7 @@
         <f t="shared" si="2"/>
         <v>99.173913043478265</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>7293.9995899003598</v>
       </c>
       <c r="O6" s="1">
@@ -1677,7 +1680,7 @@
         <f t="shared" si="2"/>
         <v>110.1522633744856</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>28499</v>
       </c>
       <c r="O7" s="1">
@@ -1728,7 +1731,7 @@
       <c r="K8">
         <v>14</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>14.9999926880483</v>
       </c>
       <c r="O8" s="1">
@@ -1795,7 +1798,7 @@
         <f t="shared" si="2"/>
         <v>297.8</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>1582.5</v>
       </c>
       <c r="O9" s="1">
@@ -1874,7 +1877,7 @@
         <f t="shared" si="2"/>
         <v>39.473684210526315</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>773.99999262499796</v>
       </c>
       <c r="O10" s="1">
@@ -1953,7 +1956,7 @@
         <f t="shared" si="2"/>
         <v>169.14285714285714</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <v>1265.9999919378199</v>
       </c>
       <c r="O11" s="1">
@@ -2032,7 +2035,7 @@
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <v>6622.5</v>
       </c>
       <c r="O12" s="1">
@@ -2111,7 +2114,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>181.49999278320701</v>
       </c>
       <c r="O13" s="1">
@@ -2190,7 +2193,7 @@
         <f t="shared" si="2"/>
         <v>80.062068965517241</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <v>36370</v>
       </c>
       <c r="O14" s="1">
@@ -2265,7 +2268,7 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <v>87.499992849196602</v>
       </c>
       <c r="O15" s="1">
@@ -2316,7 +2319,7 @@
       <c r="K16">
         <v>7</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>8.99999244894288</v>
       </c>
       <c r="O16" s="1">
@@ -2383,7 +2386,7 @@
         <f t="shared" si="2"/>
         <v>43.257861635220124</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="2">
         <v>7356</v>
       </c>
       <c r="O17" s="1">
@@ -2462,7 +2465,7 @@
         <f t="shared" si="2"/>
         <v>74.13636363636364</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="2">
         <v>1734.5</v>
       </c>
       <c r="O18" s="1">
@@ -2541,7 +2544,7 @@
         <f t="shared" si="2"/>
         <v>136.5</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="2">
         <v>1159.4999912871299</v>
       </c>
       <c r="O19" s="1">
@@ -2620,7 +2623,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="2">
         <v>69.999992704874103</v>
       </c>
       <c r="O20" s="1">
@@ -2671,7 +2674,7 @@
       <c r="K21">
         <v>80</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="2">
         <v>89.999993296793505</v>
       </c>
       <c r="O21" s="1">
@@ -2710,7 +2713,7 @@
       <c r="K22">
         <v>38</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="2">
         <v>44.999992374444098</v>
       </c>
       <c r="O22" s="1">
@@ -2749,7 +2752,7 @@
       <c r="K23">
         <v>24</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="2">
         <v>24.499992519879601</v>
       </c>
       <c r="O23" s="1">
@@ -2816,7 +2819,7 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="2">
         <v>40.499992411364801</v>
       </c>
       <c r="O24" s="1">
@@ -2883,7 +2886,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="2">
         <v>10.4999926095234</v>
       </c>
       <c r="O25" s="1">
@@ -2934,7 +2937,7 @@
       <c r="K26">
         <v>29</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="2">
         <v>31.499992374444101</v>
       </c>
       <c r="O26" s="1">
@@ -2989,7 +2992,7 @@
         <f t="shared" si="2"/>
         <v>29.25</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="2">
         <v>124.499992522954</v>
       </c>
       <c r="O27" s="1">
@@ -3068,7 +3071,7 @@
         <f t="shared" si="2"/>
         <v>346.33333333333331</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="2">
         <v>1078</v>
       </c>
       <c r="O28" s="1">
@@ -3147,7 +3150,7 @@
         <f t="shared" si="2"/>
         <v>24.9375</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="2">
         <v>427.99999371561398</v>
       </c>
       <c r="O29" s="1">
@@ -3226,7 +3229,7 @@
         <f t="shared" si="2"/>
         <v>86.612903225806448</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="2">
         <v>16979.4939014716</v>
       </c>
       <c r="O30" s="1">
@@ -3277,7 +3280,7 @@
       <c r="K31">
         <v>10</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="2">
         <v>12.9999925043159</v>
       </c>
       <c r="O31" s="1">
@@ -3344,7 +3347,7 @@
         <f t="shared" si="2"/>
         <v>146.1</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="2">
         <v>1546</v>
       </c>
       <c r="O32" s="1">
@@ -3423,7 +3426,7 @@
         <f t="shared" si="2"/>
         <v>11.75</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="2">
         <v>52.499992396152798</v>
       </c>
       <c r="O33" s="1">
@@ -3494,7 +3497,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="2">
         <v>70.499992664740603</v>
       </c>
       <c r="O34" s="1">
@@ -3573,7 +3576,7 @@
         <f t="shared" si="2"/>
         <v>84.684210526315795</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="2">
         <v>3428.50020474859</v>
       </c>
       <c r="O35" s="1">
@@ -3652,7 +3655,7 @@
         <f t="shared" si="2"/>
         <v>121.50909090909092</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="2">
         <v>6886.9980793538298</v>
       </c>
       <c r="O36" s="1">
@@ -3731,7 +3734,7 @@
         <f t="shared" si="2"/>
         <v>69.911764705882348</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="2">
         <v>2540.4998708512398</v>
       </c>
       <c r="O37" s="1">
@@ -3782,7 +3785,7 @@
       <c r="K38">
         <v>106</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="2">
         <v>105.999992739569</v>
       </c>
       <c r="O38" s="1">
@@ -3821,7 +3824,7 @@
       <c r="K39">
         <v>13</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="2">
         <v>14.499992580367101</v>
       </c>
       <c r="O39" s="1">
@@ -3860,7 +3863,7 @@
       <c r="K40">
         <v>29</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="2">
         <v>26.499992524209102</v>
       </c>
       <c r="O40" s="1">
@@ -3927,7 +3930,7 @@
         <f t="shared" si="2"/>
         <v>99.265306122448976</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="2">
         <v>5056.4998433617402</v>
       </c>
       <c r="O41" s="1">
@@ -4006,7 +4009,7 @@
         <f t="shared" si="2"/>
         <v>105.55555555555556</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="2">
         <v>2014.9999298825901</v>
       </c>
       <c r="O42" s="1">
@@ -4085,7 +4088,7 @@
         <f t="shared" si="2"/>
         <v>96.625</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="2">
         <v>2497.9996249545202</v>
       </c>
       <c r="O43" s="1">
@@ -4164,7 +4167,7 @@
         <f t="shared" si="2"/>
         <v>30.794117647058822</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="2">
         <v>1142</v>
       </c>
       <c r="O44" s="1">
@@ -4243,7 +4246,7 @@
         <f t="shared" si="2"/>
         <v>41.0625</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="2">
         <v>698.49992927296603</v>
       </c>
       <c r="O45" s="1">
@@ -4322,7 +4325,7 @@
         <f t="shared" si="2"/>
         <v>68.952380952380949</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="2">
         <v>1519.9999804516301</v>
       </c>
       <c r="O46" s="1">
@@ -4401,7 +4404,7 @@
         <f t="shared" si="2"/>
         <v>5.4375</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="2">
         <v>90.999993907744894</v>
       </c>
       <c r="O47" s="1">
@@ -4480,7 +4483,7 @@
         <f t="shared" si="2"/>
         <v>60.362537764350456</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="2">
         <v>21213.5149656875</v>
       </c>
       <c r="O48" s="1">
@@ -4559,7 +4562,7 @@
         <f t="shared" si="2"/>
         <v>45.058823529411768</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="2">
         <v>3142.5</v>
       </c>
       <c r="O49" s="1">
@@ -4638,7 +4641,7 @@
         <f t="shared" si="2"/>
         <v>117.3177570093458</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="2">
         <v>26847.484100287798</v>
       </c>
       <c r="O50" s="1">
@@ -4717,7 +4720,7 @@
         <f t="shared" si="2"/>
         <v>144.1764705882353</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="2">
         <v>5171</v>
       </c>
       <c r="O51" s="1">
@@ -4796,7 +4799,7 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="2">
         <v>12682.015715599</v>
       </c>
       <c r="O52" s="1">
@@ -4875,7 +4878,7 @@
         <f t="shared" si="2"/>
         <v>81.911111111111111</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="2">
         <v>3878.9997816554801</v>
       </c>
       <c r="O53" s="1">
@@ -4954,7 +4957,7 @@
         <f t="shared" si="2"/>
         <v>28.666666666666668</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="2">
         <v>184.49999230344</v>
       </c>
       <c r="O54" s="1">
@@ -5033,7 +5036,7 @@
         <f t="shared" si="2"/>
         <v>126.77777777777777</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="2">
         <v>1194.5</v>
       </c>
       <c r="O55" s="1">
@@ -5112,7 +5115,7 @@
         <f t="shared" si="2"/>
         <v>84.468354430379748</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="2">
         <v>7129.5016950750096</v>
       </c>
       <c r="O56" s="1">
@@ -5191,7 +5194,7 @@
         <f t="shared" si="2"/>
         <v>101.08333333333333</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="2">
         <v>6539.0006987064598</v>
       </c>
       <c r="O57" s="1">
@@ -5270,7 +5273,7 @@
         <f t="shared" si="2"/>
         <v>138.9375</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="2">
         <v>4624.5001578812098</v>
       </c>
       <c r="O58" s="1">
@@ -5349,7 +5352,7 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="2">
         <v>2484.5</v>
       </c>
       <c r="O59" s="1">
@@ -5428,7 +5431,7 @@
         <f t="shared" si="2"/>
         <v>105.77777777777777</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="2">
         <v>1033</v>
       </c>
       <c r="O60" s="1">
@@ -5503,7 +5506,7 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="2">
         <v>66.499992698884299</v>
       </c>
       <c r="O61" s="1">
@@ -5582,7 +5585,7 @@
         <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="2">
         <v>21.9999929150813</v>
       </c>
       <c r="O62" s="1">
@@ -5661,7 +5664,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="2">
         <v>14.9999927226298</v>
       </c>
       <c r="O63" s="1">
@@ -5712,7 +5715,7 @@
       <c r="K64">
         <v>7489</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="2">
         <v>7743.9985643971904</v>
       </c>
       <c r="O64" s="1">
@@ -5779,7 +5782,7 @@
         <f t="shared" si="2"/>
         <v>66.596491228070178</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="2">
         <v>4034.99969925904</v>
       </c>
       <c r="O65" s="1">
@@ -5846,7 +5849,7 @@
         <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="2">
         <v>93.499993080849507</v>
       </c>
       <c r="O66" s="1">
@@ -5925,7 +5928,7 @@
         <f t="shared" ref="M67:M68" si="8">K67/L67</f>
         <v>55.142857142857146</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="2">
         <v>796</v>
       </c>
       <c r="O67" s="1">
@@ -5996,7 +5999,7 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="2">
         <v>32.499992564850999</v>
       </c>
       <c r="O68" s="1">
@@ -6054,6 +6057,10 @@
         <f>AVERAGE(D69,G69,J69,M69)</f>
         <v>67.153088117908027</v>
       </c>
+      <c r="N73" s="2">
+        <f>SUM(N2:N68)</f>
+        <v>252603.50610032765</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
